--- a/ConfigFiles/ConfigBO_2020.xlsx
+++ b/ConfigFiles/ConfigBO_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EBCE7-3EF1-4B24-8E16-CB950A7CB4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603FDA4-B01F-42FA-8FC0-1381AECE41CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="180">
   <si>
     <t>Default value</t>
   </si>
@@ -546,28 +546,25 @@
     <t>OutageFactors/##/2020.csv</t>
   </si>
   <si>
+    <t>NTC/NTC_2020.csv</t>
+  </si>
+  <si>
+    <t>Bolivia 2020 case study configuration file research purposes. Four zones (CE, NO, OR, SU) are simulated. The simulated period is 1 year</t>
+  </si>
+  <si>
+    <t>Simulations/bolivia_base_2020</t>
+  </si>
+  <si>
+    <t>HydroData/ReservoirLevel/##/2020.csv</t>
+  </si>
+  <si>
+    <t>PowerPlants/##/2020.csv</t>
+  </si>
+  <si>
     <t>AvailabilityFactors/##/2020.csv</t>
   </si>
   <si>
-    <t>Bolivia 2020 case study configuration file research purposes. Four zones (CE, NO, OR, SU) are simulated. The simulated period is 1 year</t>
-  </si>
-  <si>
-    <t>Simulations/bolivia_base_2020</t>
-  </si>
-  <si>
-    <t>nb</t>
-  </si>
-  <si>
-    <t>NTC/NTC_2020.csv</t>
-  </si>
-  <si>
     <t>HydroData/ScaledInflows/##/2020.csv</t>
-  </si>
-  <si>
-    <t>PowerPlants/##/2020.csv</t>
-  </si>
-  <si>
-    <t>HydroData/ReservoirLevel/##/2020.csv</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1268,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q162" sqref="Q162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1277,7 @@
     <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="68.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.109375" style="1" bestFit="1" customWidth="1"/>
@@ -1592,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="17">
-        <v>43861</v>
+        <v>44196</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>46</v>
@@ -1680,7 +1677,7 @@
         <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>38</v>
@@ -1784,9 +1781,6 @@
       </c>
       <c r="C101" s="4" t="b">
         <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1911,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -1928,7 +1922,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>63</v>
@@ -1963,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>63</v>
@@ -1995,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>63</v>
@@ -2012,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>
@@ -2670,10 +2664,10 @@
         <v>6</v>
       </c>
       <c r="C227" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>168</v>
@@ -2691,10 +2685,10 @@
         <v>165</v>
       </c>
       <c r="C228" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>169</v>
@@ -2712,10 +2706,10 @@
         <v>166</v>
       </c>
       <c r="C229" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>170</v>
@@ -3280,7 +3274,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max load)" prompt="In case no data file is provided. This single value is used for all the sets._x000a_It is defined in % of the maximum load throughout the simulation period." sqref="F130" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (in EUR/t_co2)" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F167:F169" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the cplex executable" prompt="This is only useful if the Pyomo engine is selected and if cplex is not in the PATH (i.e. accessible from the prompt). This parameters can be left unspecified in most cases._x000a__x000a_Example:_x000a_C:\\Users\\ese-veda06\\Downloads\\solvers\\cplex.exe" sqref="C38" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reservoir inflows in MWh" sqref="C133:C134" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reservoir inflows in MWh" sqref="C133" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C127" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Look Ahead Period" prompt="This is the overlap period between consecutive optimization of the rolling horizon._x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C60 C62" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>0</formula1>

--- a/ConfigFiles/ConfigBO_2020.xlsx
+++ b/ConfigFiles/ConfigBO_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603FDA4-B01F-42FA-8FC0-1381AECE41CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BC350B-CB05-4C22-80CD-0B4A6CD46009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
   <si>
     <t>Default value</t>
   </si>
@@ -552,19 +552,25 @@
     <t>Bolivia 2020 case study configuration file research purposes. Four zones (CE, NO, OR, SU) are simulated. The simulated period is 1 year</t>
   </si>
   <si>
+    <t>HydroData/ReservoirLevel/##/2020.csv</t>
+  </si>
+  <si>
+    <t>PowerPlants/##/2020.csv</t>
+  </si>
+  <si>
+    <t>AvailabilityFactors/##/2020.csv</t>
+  </si>
+  <si>
+    <t>HydroData/ScaledInflows/##/2020.csv</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
     <t>Simulations/bolivia_base_2020</t>
   </si>
   <si>
-    <t>HydroData/ReservoirLevel/##/2020.csv</t>
-  </si>
-  <si>
-    <t>PowerPlants/##/2020.csv</t>
-  </si>
-  <si>
-    <t>AvailabilityFactors/##/2020.csv</t>
-  </si>
-  <si>
-    <t>HydroData/ScaledInflows/##/2020.csv</t>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1274,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q162" sqref="Q162"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,33 +1439,42 @@
         <v>60</v>
       </c>
       <c r="B16" s="29"/>
-    </row>
-    <row r="17" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B17" s="30"/>
-    </row>
-    <row r="18" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B18" s="28"/>
-    </row>
-    <row r="19" spans="1:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:2" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C18" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:8" s="38" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>130</v>
@@ -1480,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1589,7 +1604,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="17">
-        <v>44196</v>
+        <v>43861</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>46</v>
@@ -1752,7 +1767,7 @@
         <v>34</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>113</v>
@@ -1905,7 +1920,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -1922,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>63</v>
@@ -1989,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>63</v>
@@ -2006,7 +2021,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>
